--- a/bergsharma_varv_03_12_23.xlsx
+++ b/bergsharma_varv_03_12_23.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fortnox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD6956-7CB2-4151-BD9E-F154C206BD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="714" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -198,22 +192,13 @@
   </si>
   <si>
     <t>I accept</t>
-  </si>
-  <si>
-    <t>Daniel Danielsson</t>
-  </si>
-  <si>
-    <t>Michelle Michellsson</t>
-  </si>
-  <si>
-    <t>Abraham Abrahamsson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,14 +274,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -343,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,27 +352,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,24 +386,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,16 +561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>41</v>
       </c>
@@ -846,336 +785,12 @@
         <v>49</v>
       </c>
       <c r="AI2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>250</v>
-      </c>
-      <c r="G3">
-        <v>250</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="L3">
-        <v>250</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3">
-        <v>76151</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3">
-        <v>735619573</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>2</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>250</v>
-      </c>
-      <c r="G4">
-        <v>250</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4">
-        <v>80</v>
-      </c>
-      <c r="L4">
-        <v>250</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4">
-        <v>76151</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4">
-        <v>735619573</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>250</v>
-      </c>
-      <c r="G5">
-        <v>250</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="L5">
-        <v>250</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5">
-        <v>76151</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5">
-        <v>735619573</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB5">
-        <v>7</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{D5A24775-DEA6-4B76-8B4D-37996C6D4FBE}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{BFC7D895-1B1F-44DB-8C0C-12A07AD56DDE}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{966A4B6E-CC27-4D8B-8B31-13E29D81B348}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
